--- a/Assets/11_Data/Excel/SlimeTextData.xlsx
+++ b/Assets/11_Data/Excel/SlimeTextData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thtld\Desktop\Sparta_Unity\Slime_On_The\Assets\11_Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9790A0B9-CE2A-494D-AB84-DDE47CB17C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5AC894-2B3E-40E1-85E9-843F41EABEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7605" yWindow="0" windowWidth="28800" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>먹어도 돼?</t>
+    <t>먹어도 돼?먹어도 돼?먹어도 돼?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -398,7 +398,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
